--- a/Excel_Files/Stats_Populations/2_cm/724_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2_cm/724_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002973493445794223</v>
+        <v>0.001117719921747085</v>
       </c>
       <c r="D2">
-        <v>0.0004607091885125662</v>
+        <v>0.001160129712470437</v>
       </c>
       <c r="E2">
-        <v>0.000299524197970359</v>
+        <v>0.001115316025776477</v>
       </c>
       <c r="F2">
-        <v>0.0003048075697556724</v>
+        <v>0.001064130894943403</v>
       </c>
       <c r="G2">
-        <v>0.0001923948972552716</v>
+        <v>0.0008259223726762464</v>
       </c>
       <c r="H2">
-        <v>0.0004607091885125662</v>
+        <v>0.001160129712470437</v>
       </c>
       <c r="I2">
-        <v>0.000510261593875783</v>
+        <v>0.001477242479374144</v>
       </c>
       <c r="J2">
-        <v>0.0006253329385645232</v>
+        <v>0.001555392432749037</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001497197228805222</v>
+        <v>0.0007584321921501616</v>
       </c>
       <c r="D3">
-        <v>0.0004092338369545891</v>
+        <v>0.001086204273831308</v>
       </c>
       <c r="E3">
-        <v>0.0002261240498505425</v>
+        <v>0.0009515147477261326</v>
       </c>
       <c r="F3">
-        <v>0.0001102763252497146</v>
+        <v>0.0006313302925615857</v>
       </c>
       <c r="G3">
-        <v>0.0001324105331542507</v>
+        <v>0.0007023456788780245</v>
       </c>
       <c r="H3">
-        <v>0.0002282528902367913</v>
+        <v>0.0009314826310233901</v>
       </c>
       <c r="I3">
-        <v>0.0002465160109173768</v>
+        <v>0.0009845572244498622</v>
       </c>
       <c r="J3">
-        <v>0.0001724426403409716</v>
+        <v>0.0007996609723596438</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>9.920565132459258E-05</v>
+        <v>0.0005859342768672606</v>
       </c>
       <c r="D4">
-        <v>0.000175632045734945</v>
+        <v>0.0007930909823218228</v>
       </c>
       <c r="E4">
-        <v>0.0001578516553424382</v>
+        <v>0.0007667764451966607</v>
       </c>
       <c r="F4">
-        <v>5.14732142244557E-05</v>
+        <v>0.000391226369000852</v>
       </c>
       <c r="G4">
-        <v>4.80730223097667E-05</v>
+        <v>0.0003719278781944061</v>
       </c>
       <c r="H4">
-        <v>0.0001145154497660154</v>
+        <v>0.0006350603090236397</v>
       </c>
       <c r="I4">
-        <v>0.0001632721566532703</v>
+        <v>0.000799276881508805</v>
       </c>
       <c r="J4">
-        <v>4.921736264119639E-05</v>
+        <v>0.0003775697054850564</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.85261847063159E-06</v>
+        <v>8.14490541278175E-05</v>
       </c>
       <c r="D5">
-        <v>6.573077242600278E-06</v>
+        <v>9.994738873317638E-05</v>
       </c>
       <c r="E5">
-        <v>5.01106029262809E-06</v>
+        <v>8.274773571137858E-05</v>
       </c>
       <c r="F5">
-        <v>2.583509682749515E-06</v>
+        <v>5.480174926865049E-05</v>
       </c>
       <c r="G5">
-        <v>1.763528615006162E-06</v>
+        <v>4.216050109036644E-05</v>
       </c>
       <c r="H5">
-        <v>3.190904779219165E-06</v>
+        <v>6.27224156233135E-05</v>
       </c>
       <c r="I5">
-        <v>4.498822593411688E-06</v>
+        <v>7.836451744249715E-05</v>
       </c>
       <c r="J5">
-        <v>4.301122367910981E-06</v>
+        <v>7.304842226780155E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2.877956938656189E-06</v>
+        <v>5.666769416613228E-05</v>
       </c>
       <c r="D6">
-        <v>3.564639949887018E-06</v>
+        <v>6.843008581807776E-05</v>
       </c>
       <c r="E6">
-        <v>2.516583713027343E-06</v>
+        <v>5.381526062706989E-05</v>
       </c>
       <c r="F6">
-        <v>1.169535391047759E-06</v>
+        <v>3.151866571981562E-05</v>
       </c>
       <c r="G6">
-        <v>1.046051211716601E-06</v>
+        <v>2.990205425627821E-05</v>
       </c>
       <c r="H6">
-        <v>1.486291168807117E-06</v>
+        <v>3.731813914888705E-05</v>
       </c>
       <c r="I6">
-        <v>2.948701862501608E-06</v>
+        <v>5.691040652168399E-05</v>
       </c>
       <c r="J6">
-        <v>2.39610938011094E-06</v>
+        <v>4.833323366185754E-05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.843032232618471E-06</v>
+        <v>4.311603580260607E-05</v>
       </c>
       <c r="D7">
-        <v>9.501790160610958E-07</v>
+        <v>2.853930700908066E-05</v>
       </c>
       <c r="E7">
-        <v>7.343415942052777E-07</v>
+        <v>2.350205001227865E-05</v>
       </c>
       <c r="F7">
-        <v>3.568700805815459E-07</v>
+        <v>1.454996818188966E-05</v>
       </c>
       <c r="G7">
-        <v>5.320625442515993E-07</v>
+        <v>1.922117018712805E-05</v>
       </c>
       <c r="H7">
-        <v>3.568700805815459E-07</v>
+        <v>1.454996818188966E-05</v>
       </c>
       <c r="I7">
-        <v>1.95872134699755E-06</v>
+        <v>4.436420370882237E-05</v>
       </c>
       <c r="J7">
-        <v>1.254593635034199E-06</v>
+        <v>3.311767710185995E-05</v>
       </c>
     </row>
   </sheetData>
